--- a/Code/Results/Cases/Case_2_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.96928328776895</v>
+        <v>14.5419114481106</v>
       </c>
       <c r="C2">
-        <v>8.022183981914083</v>
+        <v>6.770441030704588</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.578513394652505</v>
+        <v>13.78238661090019</v>
       </c>
       <c r="F2">
-        <v>39.30661302645821</v>
+        <v>47.67747522506782</v>
       </c>
       <c r="G2">
-        <v>2.130711846318673</v>
+        <v>3.723751959191897</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.150359789110197</v>
+        <v>9.810868265854641</v>
       </c>
       <c r="K2">
-        <v>12.92807871851965</v>
+        <v>14.05439295015895</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.55874336578626</v>
+        <v>18.09113069073169</v>
       </c>
       <c r="N2">
-        <v>16.27844670073413</v>
+        <v>23.26151785992795</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.10072321719073</v>
+        <v>14.35525989604425</v>
       </c>
       <c r="C3">
-        <v>7.445981278422391</v>
+        <v>6.638617225961452</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.094885942972653</v>
+        <v>13.75403774515839</v>
       </c>
       <c r="F3">
-        <v>37.94195376880794</v>
+        <v>47.51544599213388</v>
       </c>
       <c r="G3">
-        <v>2.13926901650818</v>
+        <v>3.726746389467194</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.205191356860166</v>
+        <v>9.829244988885401</v>
       </c>
       <c r="K3">
-        <v>12.2496119524322</v>
+        <v>13.93892594740123</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.95401622344249</v>
+        <v>18.03927139632314</v>
       </c>
       <c r="N3">
-        <v>16.40978141116765</v>
+        <v>23.30176328786925</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.55109530371694</v>
+        <v>14.2436441214718</v>
       </c>
       <c r="C4">
-        <v>7.096997728278355</v>
+        <v>6.558546095625697</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.790599501192904</v>
+        <v>13.73973460943402</v>
       </c>
       <c r="F4">
-        <v>37.11094230354416</v>
+        <v>47.42639148104627</v>
       </c>
       <c r="G4">
-        <v>2.144654885642225</v>
+        <v>3.728680171035661</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.240247459125614</v>
+        <v>9.841223709541584</v>
       </c>
       <c r="K4">
-        <v>11.82376302136971</v>
+        <v>13.87129541032365</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.57785917083249</v>
+        <v>18.01148018114591</v>
       </c>
       <c r="N4">
-        <v>16.49542398450528</v>
+        <v>23.32834009154132</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.32321259012362</v>
+        <v>14.19896748798776</v>
       </c>
       <c r="C5">
-        <v>6.960887054837817</v>
+        <v>6.526184402790343</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.664918399526822</v>
+        <v>13.73469128248644</v>
       </c>
       <c r="F5">
-        <v>36.77438065601844</v>
+        <v>47.392745433339</v>
       </c>
       <c r="G5">
-        <v>2.146884409026063</v>
+        <v>3.729492224321775</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.254882068236589</v>
+        <v>9.84628031793757</v>
       </c>
       <c r="K5">
-        <v>11.64808894574951</v>
+        <v>13.84458368057605</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.4235567280928</v>
+        <v>18.00118189059829</v>
       </c>
       <c r="N5">
-        <v>16.53154359684649</v>
+        <v>23.33963943905966</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.28514391095915</v>
+        <v>14.19159935542168</v>
       </c>
       <c r="C6">
-        <v>6.938114007562586</v>
+        <v>6.520828396574889</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.643952896933939</v>
+        <v>13.73390140532196</v>
       </c>
       <c r="F6">
-        <v>36.71863136650171</v>
+        <v>47.38731880466521</v>
       </c>
       <c r="G6">
-        <v>2.147256762995582</v>
+        <v>3.729628518508251</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.257333205568047</v>
+        <v>9.847130554370018</v>
       </c>
       <c r="K6">
-        <v>11.61879576024194</v>
+        <v>13.8402002024421</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.39788016156885</v>
+        <v>17.99953410818431</v>
       </c>
       <c r="N6">
-        <v>16.53761384193519</v>
+        <v>23.34154401520484</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.54803750395843</v>
+        <v>14.24303825361489</v>
       </c>
       <c r="C7">
-        <v>7.095173675803579</v>
+        <v>6.558108504303675</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.788911095202884</v>
+        <v>13.73966340755902</v>
       </c>
       <c r="F7">
-        <v>37.1063944020472</v>
+        <v>47.42592698614505</v>
       </c>
       <c r="G7">
-        <v>2.144684811062147</v>
+        <v>3.728691025294777</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.240443413894432</v>
+        <v>9.841291194985674</v>
       </c>
       <c r="K7">
-        <v>11.82140218760832</v>
+        <v>13.87093169783269</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.57578201298613</v>
+        <v>18.01133712695954</v>
       </c>
       <c r="N7">
-        <v>16.49590621607868</v>
+        <v>23.32849057940489</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.67329735048519</v>
+        <v>14.47696775793463</v>
       </c>
       <c r="C8">
-        <v>7.827143136768466</v>
+        <v>6.724837317363237</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.413370532976336</v>
+        <v>13.77197106208619</v>
       </c>
       <c r="F8">
-        <v>38.83484633898412</v>
+        <v>47.61945597031952</v>
       </c>
       <c r="G8">
-        <v>2.133636022458169</v>
+        <v>3.724764733775527</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.168977027120874</v>
+        <v>9.817060443279628</v>
       </c>
       <c r="K8">
-        <v>12.69617032161644</v>
+        <v>14.01391852734818</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.35135397088578</v>
+        <v>18.07241420163177</v>
       </c>
       <c r="N8">
-        <v>16.32266831558254</v>
+        <v>23.27500713051692</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.7441228567109</v>
+        <v>14.95688471972663</v>
       </c>
       <c r="C9">
-        <v>9.169620319733511</v>
+        <v>7.056541757220152</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.57398337915724</v>
+        <v>13.85969864361577</v>
       </c>
       <c r="F9">
-        <v>42.26572369780462</v>
+        <v>48.0806753016502</v>
       </c>
       <c r="G9">
-        <v>2.112935746655634</v>
+        <v>3.717816669346165</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.039891104778823</v>
+        <v>9.775046096471746</v>
       </c>
       <c r="K9">
-        <v>14.40465933063569</v>
+        <v>14.31897991636296</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.82634125718182</v>
+        <v>18.22391407265197</v>
       </c>
       <c r="N9">
-        <v>16.02458687347171</v>
+        <v>23.18493741265504</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.32074938580588</v>
+        <v>15.31893664676371</v>
       </c>
       <c r="C10">
-        <v>10.07635902844441</v>
+        <v>7.300332800876082</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.38188487381975</v>
+        <v>13.93863162792469</v>
       </c>
       <c r="F10">
-        <v>44.79734349399671</v>
+        <v>48.46772997875946</v>
       </c>
       <c r="G10">
-        <v>2.098196380245022</v>
+        <v>3.713164521487083</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.951879468106499</v>
+        <v>9.74751140245414</v>
       </c>
       <c r="K10">
-        <v>15.80876599727771</v>
+        <v>14.55637004374318</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.97436871234418</v>
+        <v>18.35394491784835</v>
       </c>
       <c r="N10">
-        <v>15.83404629275574</v>
+        <v>23.12780056890674</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.02569348993273</v>
+        <v>15.48495880255416</v>
       </c>
       <c r="C11">
-        <v>10.47264988002388</v>
+        <v>7.410693769377412</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.73894179868769</v>
+        <v>13.97758971648363</v>
       </c>
       <c r="F11">
-        <v>45.94954302772933</v>
+        <v>48.65387322365807</v>
       </c>
       <c r="G11">
-        <v>2.091563208693251</v>
+        <v>3.71114524938828</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.913356287370103</v>
+        <v>9.735704549732089</v>
       </c>
       <c r="K11">
-        <v>16.42077636933369</v>
+        <v>14.66684496583188</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.57711543861039</v>
+        <v>18.41701250304274</v>
       </c>
       <c r="N11">
-        <v>15.75435117706398</v>
+        <v>23.10377195320724</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.28849311553643</v>
+        <v>15.54795629935876</v>
       </c>
       <c r="C12">
-        <v>10.62048633578149</v>
+        <v>7.45236244373233</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.87261033642104</v>
+        <v>13.99277183959295</v>
       </c>
       <c r="F12">
-        <v>46.38585547463151</v>
+        <v>48.72577055139703</v>
       </c>
       <c r="G12">
-        <v>2.089058977894007</v>
+        <v>3.710394464906577</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.898990385483853</v>
+        <v>9.731336644554935</v>
       </c>
       <c r="K12">
-        <v>16.64882409022738</v>
+        <v>14.70900167435986</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.80150088634318</v>
+        <v>18.44144328730013</v>
       </c>
       <c r="N12">
-        <v>15.72525574188514</v>
+        <v>23.09495548313913</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.23207671781481</v>
+        <v>15.53438391645249</v>
       </c>
       <c r="C13">
-        <v>10.5887446364163</v>
+        <v>7.4433944926149</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.84389135336362</v>
+        <v>13.98948314680394</v>
       </c>
       <c r="F13">
-        <v>46.29188834705722</v>
+        <v>48.71022416276843</v>
       </c>
       <c r="G13">
-        <v>2.089598016899259</v>
+        <v>3.710555544178942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.902074385307412</v>
+        <v>9.732272770228628</v>
       </c>
       <c r="K13">
-        <v>16.59987252271865</v>
+        <v>14.69990870339747</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.75334517759487</v>
+        <v>18.43615753032724</v>
       </c>
       <c r="N13">
-        <v>15.73147240665793</v>
+        <v>23.09684169148677</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.04739648822058</v>
+        <v>15.49013941856021</v>
       </c>
       <c r="C14">
-        <v>10.48485657627002</v>
+        <v>7.414124582653132</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.74996982034147</v>
+        <v>13.97883020513077</v>
       </c>
       <c r="F14">
-        <v>45.98543894003102</v>
+        <v>48.65976025620827</v>
       </c>
       <c r="G14">
-        <v>2.091357048272519</v>
+        <v>3.711083204379725</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.912169918131309</v>
+        <v>9.735343134928591</v>
       </c>
       <c r="K14">
-        <v>16.43961147122081</v>
+        <v>14.67030696756061</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.59565242845229</v>
+        <v>18.41901153340674</v>
       </c>
       <c r="N14">
-        <v>15.75193527437289</v>
+        <v>23.10304095030908</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.93373854710874</v>
+        <v>15.46305330882655</v>
       </c>
       <c r="C15">
-        <v>10.42093476463635</v>
+        <v>7.396178655877915</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.69223869632515</v>
+        <v>13.97236062608558</v>
       </c>
       <c r="F15">
-        <v>45.79772855529514</v>
+        <v>48.62903193532449</v>
       </c>
       <c r="G15">
-        <v>2.092435410802463</v>
+        <v>3.711408215399389</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.918382780823707</v>
+        <v>9.737237239842637</v>
       </c>
       <c r="K15">
-        <v>16.34096838560094</v>
+        <v>14.65221596826315</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.49856192890699</v>
+        <v>18.40858009122027</v>
       </c>
       <c r="N15">
-        <v>15.76461298924734</v>
+        <v>23.10687499427871</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.27409181069614</v>
+        <v>15.30810802847632</v>
       </c>
       <c r="C16">
-        <v>10.05014284343137</v>
+        <v>7.293105682316138</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.35833626568541</v>
+        <v>13.93614624830253</v>
       </c>
       <c r="F16">
-        <v>44.72204728593479</v>
+        <v>48.45576442683427</v>
       </c>
       <c r="G16">
-        <v>2.09863109276991</v>
+        <v>3.713298430943694</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.954427852532261</v>
+        <v>9.748297449171767</v>
       </c>
       <c r="K16">
-        <v>15.76824322792313</v>
+        <v>14.54919726289733</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.93443059611308</v>
+        <v>18.3499008691508</v>
       </c>
       <c r="N16">
-        <v>15.83940160997938</v>
+        <v>23.12941042894426</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.86188889640324</v>
+        <v>15.2133487115094</v>
       </c>
       <c r="C17">
-        <v>9.818593947850438</v>
+        <v>7.229702597790105</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.15078615919603</v>
+        <v>13.9147050058103</v>
       </c>
       <c r="F17">
-        <v>44.06221507164082</v>
+        <v>48.35202256647432</v>
       </c>
       <c r="G17">
-        <v>2.102448491887256</v>
+        <v>3.714482807069933</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.976930769181816</v>
+        <v>9.755266440965981</v>
       </c>
       <c r="K17">
-        <v>15.41014276333633</v>
+        <v>14.48661027200952</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.58134360976509</v>
+        <v>18.31489588669274</v>
       </c>
       <c r="N17">
-        <v>15.88712367899138</v>
+        <v>23.14373825147373</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.62199251236199</v>
+        <v>15.15897381817821</v>
       </c>
       <c r="C18">
-        <v>9.683882922863408</v>
+        <v>7.193186462660107</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.03042507335152</v>
+        <v>13.90266034313272</v>
       </c>
       <c r="F18">
-        <v>43.68274977502038</v>
+        <v>48.29330334848017</v>
       </c>
       <c r="G18">
-        <v>2.104651099521577</v>
+        <v>3.71517316502001</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.990016013039932</v>
+        <v>9.759342495151937</v>
       </c>
       <c r="K18">
-        <v>15.20164856989855</v>
+        <v>14.4508479222315</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.41650488858106</v>
+        <v>18.29513146424653</v>
       </c>
       <c r="N18">
-        <v>15.91522407594917</v>
+        <v>23.15216400285146</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.54028176686261</v>
+        <v>15.14058732269077</v>
       </c>
       <c r="C19">
-        <v>9.638006453428588</v>
+        <v>7.180815825639733</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.98950535434503</v>
+        <v>13.89863192274891</v>
       </c>
       <c r="F19">
-        <v>43.5542819449954</v>
+        <v>48.27358640657487</v>
       </c>
       <c r="G19">
-        <v>2.105398135162868</v>
+        <v>3.715408479953887</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.994470754663327</v>
+        <v>9.760734208560255</v>
       </c>
       <c r="K19">
-        <v>15.13061853490423</v>
+        <v>14.43878100515136</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.36338721220672</v>
+        <v>18.2885034670499</v>
       </c>
       <c r="N19">
-        <v>15.92484810602587</v>
+        <v>23.15504854129037</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.90605835595333</v>
+        <v>15.22342318913843</v>
       </c>
       <c r="C20">
-        <v>9.843400419919245</v>
+        <v>7.23645730154807</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.17298236460976</v>
+        <v>13.91695774398237</v>
       </c>
       <c r="F20">
-        <v>44.13245067413877</v>
+        <v>48.36296798234855</v>
       </c>
       <c r="G20">
-        <v>2.102041423744641</v>
+        <v>3.714355783241134</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.974520554440296</v>
+        <v>9.754517577850988</v>
       </c>
       <c r="K20">
-        <v>15.44852347836399</v>
+        <v>14.49324858842179</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.61920009408428</v>
+        <v>18.3185840865122</v>
       </c>
       <c r="N20">
-        <v>15.88197556988375</v>
+        <v>23.14219390535996</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.10175298711453</v>
+        <v>15.5031320987148</v>
       </c>
       <c r="C21">
-        <v>10.5154307174798</v>
+        <v>7.422725538826142</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.77759887729397</v>
+        <v>13.98194765108181</v>
       </c>
       <c r="F21">
-        <v>46.07545087078162</v>
+        <v>48.6745448153175</v>
       </c>
       <c r="G21">
-        <v>2.090840194781328</v>
+        <v>3.710927841997065</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.909198550546148</v>
+        <v>9.734438498591706</v>
       </c>
       <c r="K21">
-        <v>16.48678349915017</v>
+        <v>14.6789932506578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.64207440074035</v>
+        <v>18.42403296432865</v>
       </c>
       <c r="N21">
-        <v>15.74589474795004</v>
+        <v>23.10121240406384</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.85910747265552</v>
+        <v>15.68665933343726</v>
       </c>
       <c r="C22">
-        <v>10.94169449999274</v>
+        <v>7.543728691687293</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.16376373870456</v>
+        <v>14.02692131121779</v>
       </c>
       <c r="F22">
-        <v>47.34532336233957</v>
+        <v>48.88637070131067</v>
       </c>
       <c r="G22">
-        <v>2.083562408497911</v>
+        <v>3.708768292454554</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.867803646543568</v>
+        <v>9.721916446491667</v>
       </c>
       <c r="K22">
-        <v>17.14380958233325</v>
+        <v>14.80224995220463</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.28813684761229</v>
+        <v>18.4961393455432</v>
       </c>
       <c r="N22">
-        <v>15.66331735948535</v>
+        <v>23.07607626158026</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.45705087877437</v>
+        <v>15.58866147973371</v>
       </c>
       <c r="C23">
-        <v>10.71533911241916</v>
+        <v>7.479228395923918</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.95848988423982</v>
+        <v>14.00269255962136</v>
       </c>
       <c r="F23">
-        <v>46.66757607946892</v>
+        <v>48.77257919316886</v>
       </c>
       <c r="G23">
-        <v>2.087443754169121</v>
+        <v>3.709913517167065</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.889776492270136</v>
+        <v>9.728544817596111</v>
       </c>
       <c r="K23">
-        <v>16.79506485139111</v>
+        <v>14.73630685722587</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.94533219345552</v>
+        <v>18.45736803762238</v>
       </c>
       <c r="N23">
-        <v>15.7067796083796</v>
+        <v>23.08934102059282</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.88609843378117</v>
+        <v>15.21886819069556</v>
       </c>
       <c r="C24">
-        <v>9.832190375144013</v>
+        <v>7.233403698560357</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.16295068953313</v>
+        <v>13.91593840138891</v>
       </c>
       <c r="F24">
-        <v>44.1006975218472</v>
+        <v>48.35801668069071</v>
       </c>
       <c r="G24">
-        <v>2.102225434337031</v>
+        <v>3.714413181289054</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.975609751796183</v>
+        <v>9.754855922394674</v>
       </c>
       <c r="K24">
-        <v>15.4311797200223</v>
+        <v>14.49024671842579</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.60209361717088</v>
+        <v>18.3169155276508</v>
       </c>
       <c r="N24">
-        <v>15.88430096659421</v>
+        <v>23.14289151708393</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.19913297044388</v>
+        <v>14.82514208231892</v>
       </c>
       <c r="C25">
-        <v>8.820754128945334</v>
+        <v>6.966593569697924</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.26754670016296</v>
+        <v>13.83339312413261</v>
       </c>
       <c r="F25">
-        <v>41.33481783668665</v>
+        <v>47.9473108469379</v>
       </c>
       <c r="G25">
-        <v>2.118444014254161</v>
+        <v>3.719616431152008</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.073621773997441</v>
+        <v>9.785825242152134</v>
       </c>
       <c r="K25">
-        <v>13.89849209136914</v>
+        <v>14.2339908527654</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.43314060441307</v>
+        <v>18.17959241346478</v>
       </c>
       <c r="N25">
-        <v>16.10047457683477</v>
+        <v>23.20771723299382</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.5419114481106</v>
+        <v>14.96928328776891</v>
       </c>
       <c r="C2">
-        <v>6.770441030704588</v>
+        <v>8.022183981914029</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.78238661090019</v>
+        <v>9.578513394652575</v>
       </c>
       <c r="F2">
-        <v>47.67747522506782</v>
+        <v>39.30661302645821</v>
       </c>
       <c r="G2">
-        <v>3.723751959191897</v>
+        <v>2.130711846318537</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.810868265854641</v>
+        <v>6.150359789110225</v>
       </c>
       <c r="K2">
-        <v>14.05439295015895</v>
+        <v>12.92807871851964</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.09113069073169</v>
+        <v>13.55874336578629</v>
       </c>
       <c r="N2">
-        <v>23.26151785992795</v>
+        <v>16.27844670073413</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.35525989604425</v>
+        <v>14.10072321719071</v>
       </c>
       <c r="C3">
-        <v>6.638617225961452</v>
+        <v>7.445981278422319</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.75403774515839</v>
+        <v>9.094885942972713</v>
       </c>
       <c r="F3">
-        <v>47.51544599213388</v>
+        <v>37.94195376880797</v>
       </c>
       <c r="G3">
-        <v>3.726746389467194</v>
+        <v>2.139269016508045</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.829244988885401</v>
+        <v>6.2051913568601</v>
       </c>
       <c r="K3">
-        <v>13.93892594740123</v>
+        <v>12.24961195243219</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.03927139632314</v>
+        <v>12.9540162234425</v>
       </c>
       <c r="N3">
-        <v>23.30176328786925</v>
+        <v>16.40978141116759</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.2436441214718</v>
+        <v>13.55109530371694</v>
       </c>
       <c r="C4">
-        <v>6.558546095625697</v>
+        <v>7.09699772827832</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.73973460943402</v>
+        <v>8.79059950119297</v>
       </c>
       <c r="F4">
-        <v>47.42639148104627</v>
+        <v>37.11094230354412</v>
       </c>
       <c r="G4">
-        <v>3.728680171035661</v>
+        <v>2.144654885642094</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.841223709541584</v>
+        <v>6.240247459125679</v>
       </c>
       <c r="K4">
-        <v>13.87129541032365</v>
+        <v>11.82376302136968</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.01148018114591</v>
+        <v>12.5778591708325</v>
       </c>
       <c r="N4">
-        <v>23.32834009154132</v>
+        <v>16.49542398450524</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.19896748798776</v>
+        <v>13.32321259012359</v>
       </c>
       <c r="C5">
-        <v>6.526184402790343</v>
+        <v>6.960887054837805</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.73469128248644</v>
+        <v>8.664918399526925</v>
       </c>
       <c r="F5">
-        <v>47.392745433339</v>
+        <v>36.77438065601839</v>
       </c>
       <c r="G5">
-        <v>3.729492224321775</v>
+        <v>2.146884409026065</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.84628031793757</v>
+        <v>6.254882068236589</v>
       </c>
       <c r="K5">
-        <v>13.84458368057605</v>
+        <v>11.64808894574946</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.00118189059829</v>
+        <v>12.42355672809282</v>
       </c>
       <c r="N5">
-        <v>23.33963943905966</v>
+        <v>16.53154359684635</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.19159935542168</v>
+        <v>13.28514391095916</v>
       </c>
       <c r="C6">
-        <v>6.520828396574889</v>
+        <v>6.938114007562578</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.73390140532196</v>
+        <v>8.643952896933889</v>
       </c>
       <c r="F6">
-        <v>47.38731880466521</v>
+        <v>36.71863136650171</v>
       </c>
       <c r="G6">
-        <v>3.729628518508251</v>
+        <v>2.147256762995315</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.847130554370018</v>
+        <v>6.257333205568112</v>
       </c>
       <c r="K6">
-        <v>13.8402002024421</v>
+        <v>11.61879576024194</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.99953410818431</v>
+        <v>12.39788016156884</v>
       </c>
       <c r="N6">
-        <v>23.34154401520484</v>
+        <v>16.53761384193525</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.24303825361489</v>
+        <v>13.54803750395845</v>
       </c>
       <c r="C7">
-        <v>6.558108504303675</v>
+        <v>7.095173675803585</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.73966340755902</v>
+        <v>8.788911095202852</v>
       </c>
       <c r="F7">
-        <v>47.42592698614505</v>
+        <v>37.10639440204729</v>
       </c>
       <c r="G7">
-        <v>3.728691025294777</v>
+        <v>2.144684811062148</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.841291194985674</v>
+        <v>6.240443413894377</v>
       </c>
       <c r="K7">
-        <v>13.87093169783269</v>
+        <v>11.82140218760835</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.01133712695954</v>
+        <v>12.57578201298615</v>
       </c>
       <c r="N7">
-        <v>23.32849057940489</v>
+        <v>16.49590621607872</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.47696775793463</v>
+        <v>14.67329735048521</v>
       </c>
       <c r="C8">
-        <v>6.724837317363237</v>
+        <v>7.82714313676844</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.77197106208619</v>
+        <v>9.41337053297628</v>
       </c>
       <c r="F8">
-        <v>47.61945597031952</v>
+        <v>38.83484633898418</v>
       </c>
       <c r="G8">
-        <v>3.724764733775527</v>
+        <v>2.133636022458167</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.817060443279628</v>
+        <v>6.168977027120905</v>
       </c>
       <c r="K8">
-        <v>14.01391852734818</v>
+        <v>12.69617032161647</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.07241420163177</v>
+        <v>13.35135397088577</v>
       </c>
       <c r="N8">
-        <v>23.27500713051692</v>
+        <v>16.32266831558263</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.95688471972663</v>
+        <v>16.74412285671091</v>
       </c>
       <c r="C9">
-        <v>7.056541757220152</v>
+        <v>9.169620319733603</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.85969864361577</v>
+        <v>10.57398337915723</v>
       </c>
       <c r="F9">
-        <v>48.0806753016502</v>
+        <v>42.2657236978046</v>
       </c>
       <c r="G9">
-        <v>3.717816669346165</v>
+        <v>2.112935746655765</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.775046096471746</v>
+        <v>6.03989110477879</v>
       </c>
       <c r="K9">
-        <v>14.31897991636296</v>
+        <v>14.40465933063574</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.22391407265197</v>
+        <v>14.82634125718181</v>
       </c>
       <c r="N9">
-        <v>23.18493741265504</v>
+        <v>16.02458687347166</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.31893664676371</v>
+        <v>18.32074938580587</v>
       </c>
       <c r="C10">
-        <v>7.300332800876082</v>
+        <v>10.07635902844449</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.93863162792469</v>
+        <v>11.38188487381972</v>
       </c>
       <c r="F10">
-        <v>48.46772997875946</v>
+        <v>44.79734349399661</v>
       </c>
       <c r="G10">
-        <v>3.713164521487083</v>
+        <v>2.09819638024515</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.74751140245414</v>
+        <v>5.951879468106528</v>
       </c>
       <c r="K10">
-        <v>14.55637004374318</v>
+        <v>15.80876599727773</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.35394491784835</v>
+        <v>15.97436871234421</v>
       </c>
       <c r="N10">
-        <v>23.12780056890674</v>
+        <v>15.83404629275572</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.48495880255416</v>
+        <v>19.02569348993269</v>
       </c>
       <c r="C11">
-        <v>7.410693769377412</v>
+        <v>10.47264988002382</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.97758971648363</v>
+        <v>11.73894179868766</v>
       </c>
       <c r="F11">
-        <v>48.65387322365807</v>
+        <v>45.94954302772938</v>
       </c>
       <c r="G11">
-        <v>3.71114524938828</v>
+        <v>2.091563208693251</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.735704549732089</v>
+        <v>5.913356287370047</v>
       </c>
       <c r="K11">
-        <v>14.66684496583188</v>
+        <v>16.42077636933365</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.41701250304274</v>
+        <v>16.57711543861034</v>
       </c>
       <c r="N11">
-        <v>23.10377195320724</v>
+        <v>15.75435117706401</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54795629935876</v>
+        <v>19.2884931155365</v>
       </c>
       <c r="C12">
-        <v>7.45236244373233</v>
+        <v>10.62048633578146</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.99277183959295</v>
+        <v>11.87261033642103</v>
       </c>
       <c r="F12">
-        <v>48.72577055139703</v>
+        <v>46.38585547463153</v>
       </c>
       <c r="G12">
-        <v>3.710394464906577</v>
+        <v>2.089058977893872</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.731336644554935</v>
+        <v>5.898990385483885</v>
       </c>
       <c r="K12">
-        <v>14.70900167435986</v>
+        <v>16.64882409022739</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.44144328730013</v>
+        <v>16.80150088634322</v>
       </c>
       <c r="N12">
-        <v>23.09495548313913</v>
+        <v>15.7252557418851</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.53438391645249</v>
+        <v>19.23207671781481</v>
       </c>
       <c r="C13">
-        <v>7.4433944926149</v>
+        <v>10.58874463641635</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.98948314680394</v>
+        <v>11.84389135336362</v>
       </c>
       <c r="F13">
-        <v>48.71022416276843</v>
+        <v>46.29188834705719</v>
       </c>
       <c r="G13">
-        <v>3.710555544178942</v>
+        <v>2.089598016899125</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.732272770228628</v>
+        <v>5.902074385307438</v>
       </c>
       <c r="K13">
-        <v>14.69990870339747</v>
+        <v>16.59987252271865</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.43615753032724</v>
+        <v>16.75334517759487</v>
       </c>
       <c r="N13">
-        <v>23.09684169148677</v>
+        <v>15.73147240665793</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.49013941856021</v>
+        <v>19.0473964882205</v>
       </c>
       <c r="C14">
-        <v>7.414124582653132</v>
+        <v>10.48485657627001</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.97883020513077</v>
+        <v>11.74996982034145</v>
       </c>
       <c r="F14">
-        <v>48.65976025620827</v>
+        <v>45.98543894003101</v>
       </c>
       <c r="G14">
-        <v>3.711083204379725</v>
+        <v>2.091357048272388</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.735343134928591</v>
+        <v>5.91216991813145</v>
       </c>
       <c r="K14">
-        <v>14.67030696756061</v>
+        <v>16.43961147122077</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.41901153340674</v>
+        <v>16.59565242845225</v>
       </c>
       <c r="N14">
-        <v>23.10304095030908</v>
+        <v>15.751935274373</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.46305330882655</v>
+        <v>18.93373854710877</v>
       </c>
       <c r="C15">
-        <v>7.396178655877915</v>
+        <v>10.42093476463631</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.97236062608558</v>
+        <v>11.69223869632515</v>
       </c>
       <c r="F15">
-        <v>48.62903193532449</v>
+        <v>45.79772855529509</v>
       </c>
       <c r="G15">
-        <v>3.711408215399389</v>
+        <v>2.092435410802733</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.737237239842637</v>
+        <v>5.918382780823735</v>
       </c>
       <c r="K15">
-        <v>14.65221596826315</v>
+        <v>16.34096838560099</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.40858009122027</v>
+        <v>16.49856192890697</v>
       </c>
       <c r="N15">
-        <v>23.10687499427871</v>
+        <v>15.76461298924728</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.30810802847632</v>
+        <v>18.27409181069621</v>
       </c>
       <c r="C16">
-        <v>7.293105682316138</v>
+        <v>10.05014284343122</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.93614624830253</v>
+        <v>11.35833626568542</v>
       </c>
       <c r="F16">
-        <v>48.45576442683427</v>
+        <v>44.72204728593483</v>
       </c>
       <c r="G16">
-        <v>3.713298430943694</v>
+        <v>2.098631092770041</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.748297449171767</v>
+        <v>5.954427852532264</v>
       </c>
       <c r="K16">
-        <v>14.54919726289733</v>
+        <v>15.76824322792316</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.3499008691508</v>
+        <v>15.93443059611308</v>
       </c>
       <c r="N16">
-        <v>23.12941042894426</v>
+        <v>15.83940160997939</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.2133487115094</v>
+        <v>17.86188889640324</v>
       </c>
       <c r="C17">
-        <v>7.229702597790105</v>
+        <v>9.818593947850433</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.9147050058103</v>
+        <v>11.15078615919603</v>
       </c>
       <c r="F17">
-        <v>48.35202256647432</v>
+        <v>44.06221507164084</v>
       </c>
       <c r="G17">
-        <v>3.714482807069933</v>
+        <v>2.10244849188739</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.755266440965981</v>
+        <v>5.976930769181849</v>
       </c>
       <c r="K17">
-        <v>14.48661027200952</v>
+        <v>15.41014276333634</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.31489588669274</v>
+        <v>15.58134360976506</v>
       </c>
       <c r="N17">
-        <v>23.14373825147373</v>
+        <v>15.88712367899139</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.15897381817821</v>
+        <v>17.621992512362</v>
       </c>
       <c r="C18">
-        <v>7.193186462660107</v>
+        <v>9.683882922863365</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.90266034313272</v>
+        <v>11.03042507335151</v>
       </c>
       <c r="F18">
-        <v>48.29330334848017</v>
+        <v>43.68274977502042</v>
       </c>
       <c r="G18">
-        <v>3.71517316502001</v>
+        <v>2.104651099521706</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.759342495151937</v>
+        <v>5.990016013039903</v>
       </c>
       <c r="K18">
-        <v>14.4508479222315</v>
+        <v>15.20164856989857</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.29513146424653</v>
+        <v>15.41650488858108</v>
       </c>
       <c r="N18">
-        <v>23.15216400285146</v>
+        <v>15.91522407594917</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.14058732269077</v>
+        <v>17.54028176686257</v>
       </c>
       <c r="C19">
-        <v>7.180815825639733</v>
+        <v>9.638006453428686</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.89863192274891</v>
+        <v>10.98950535434498</v>
       </c>
       <c r="F19">
-        <v>48.27358640657487</v>
+        <v>43.55428194499552</v>
       </c>
       <c r="G19">
-        <v>3.715408479953887</v>
+        <v>2.105398135162465</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.760734208560255</v>
+        <v>5.994470754663306</v>
       </c>
       <c r="K19">
-        <v>14.43878100515136</v>
+        <v>15.13061853490421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.2885034670499</v>
+        <v>15.36338721220671</v>
       </c>
       <c r="N19">
-        <v>23.15504854129037</v>
+        <v>15.92484810602601</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.22342318913843</v>
+        <v>17.9060583559532</v>
       </c>
       <c r="C20">
-        <v>7.23645730154807</v>
+        <v>9.843400419919259</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.91695774398237</v>
+        <v>11.1729823646097</v>
       </c>
       <c r="F20">
-        <v>48.36296798234855</v>
+        <v>44.13245067413876</v>
       </c>
       <c r="G20">
-        <v>3.714355783241134</v>
+        <v>2.10204142374451</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.754517577850988</v>
+        <v>5.974520554440317</v>
       </c>
       <c r="K20">
-        <v>14.49324858842179</v>
+        <v>15.44852347836385</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.3185840865122</v>
+        <v>15.61920009408427</v>
       </c>
       <c r="N20">
-        <v>23.14219390535996</v>
+        <v>15.88197556988384</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.5031320987148</v>
+        <v>19.1017529871145</v>
       </c>
       <c r="C21">
-        <v>7.422725538826142</v>
+        <v>10.51543071747976</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.98194765108181</v>
+        <v>11.77759887729393</v>
       </c>
       <c r="F21">
-        <v>48.6745448153175</v>
+        <v>46.07545087078159</v>
       </c>
       <c r="G21">
-        <v>3.710927841997065</v>
+        <v>2.090840194781465</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.734438498591706</v>
+        <v>5.909198550546143</v>
       </c>
       <c r="K21">
-        <v>14.6789932506578</v>
+        <v>16.48678349915013</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.42403296432865</v>
+        <v>16.64207440074033</v>
       </c>
       <c r="N21">
-        <v>23.10121240406384</v>
+        <v>15.7458947479501</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.68665933343726</v>
+        <v>19.85910747265547</v>
       </c>
       <c r="C22">
-        <v>7.543728691687293</v>
+        <v>10.94169449999274</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.02692131121779</v>
+        <v>12.16376373870457</v>
       </c>
       <c r="F22">
-        <v>48.88637070131067</v>
+        <v>47.34532336233961</v>
       </c>
       <c r="G22">
-        <v>3.708768292454554</v>
+        <v>2.083562408497645</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.721916446491667</v>
+        <v>5.867803646543508</v>
       </c>
       <c r="K22">
-        <v>14.80224995220463</v>
+        <v>17.14380958233321</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.4961393455432</v>
+        <v>17.28813684761217</v>
       </c>
       <c r="N22">
-        <v>23.07607626158026</v>
+        <v>15.66331735948542</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.58866147973371</v>
+        <v>19.45705087877437</v>
       </c>
       <c r="C23">
-        <v>7.479228395923918</v>
+        <v>10.71533911241912</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.00269255962136</v>
+        <v>11.95848988423977</v>
       </c>
       <c r="F23">
-        <v>48.77257919316886</v>
+        <v>46.66757607946895</v>
       </c>
       <c r="G23">
-        <v>3.709913517167065</v>
+        <v>2.087443754168993</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.728544817596111</v>
+        <v>5.889776492270151</v>
       </c>
       <c r="K23">
-        <v>14.73630685722587</v>
+        <v>16.79506485139109</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.45736803762238</v>
+        <v>16.94533219345547</v>
       </c>
       <c r="N23">
-        <v>23.08934102059282</v>
+        <v>15.70677960837958</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.21886819069556</v>
+        <v>17.8860984337812</v>
       </c>
       <c r="C24">
-        <v>7.233403698560357</v>
+        <v>9.832190375144005</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.91593840138891</v>
+        <v>11.16295068953317</v>
       </c>
       <c r="F24">
-        <v>48.35801668069071</v>
+        <v>44.10069752184724</v>
       </c>
       <c r="G24">
-        <v>3.714413181289054</v>
+        <v>2.102225434337031</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.754855922394674</v>
+        <v>5.97560975179624</v>
       </c>
       <c r="K24">
-        <v>14.49024671842579</v>
+        <v>15.43117972002232</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.3169155276508</v>
+        <v>15.60209361717083</v>
       </c>
       <c r="N24">
-        <v>23.14289151708393</v>
+        <v>15.88430096659424</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.82514208231892</v>
+        <v>16.19913297044385</v>
       </c>
       <c r="C25">
-        <v>6.966593569697924</v>
+        <v>8.820754128945486</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.83339312413261</v>
+        <v>10.26754670016307</v>
       </c>
       <c r="F25">
-        <v>47.9473108469379</v>
+        <v>41.33481783668667</v>
       </c>
       <c r="G25">
-        <v>3.719616431152008</v>
+        <v>2.118444014253893</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.785825242152134</v>
+        <v>6.073621773997349</v>
       </c>
       <c r="K25">
-        <v>14.2339908527654</v>
+        <v>13.89849209136912</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.17959241346478</v>
+        <v>14.43314060441311</v>
       </c>
       <c r="N25">
-        <v>23.20771723299382</v>
+        <v>16.10047457683465</v>
       </c>
       <c r="O25">
         <v>0</v>
